--- a/biology/Virologie/Megavirus_chilensis/Megavirus_chilensis.xlsx
+++ b/biology/Virologie/Megavirus_chilensis/Megavirus_chilensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
- Megavirus chilensis  est un virus de la famille des Mimiviridae[1] identifié par des chercheurs français du CNRS après sa découverte dans l'océan Pacifique au large des côtes du Chili[2].
+ Megavirus chilensis  est un virus de la famille des Mimiviridae identifié par des chercheurs français du CNRS après sa découverte dans l'océan Pacifique au large des côtes du Chili.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Taille exceptionnelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fut un temps, à compter de sa découverte en avril 2010[3], le plus grand virus connu, présentant la plus grande capside et l'ADN viral le plus complexe[4]. 
-Il est plus grand que le virus Ebola (mesurant parfois plus de 1000 nm de long) et le mamavirus, deux des plus grands virus connus[5] avant la découverte de Megavirus chilensis[6].
-Mais en 2013, un article de la revue scientifique Science a décrit deux virus encore plus gros et génétiquement encore plus complexes, les pandoravirus, trouvés respectivement dans des sédiments marins, face au Chili, et en eau douce (en Australie)[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fut un temps, à compter de sa découverte en avril 2010, le plus grand virus connu, présentant la plus grande capside et l'ADN viral le plus complexe. 
+Il est plus grand que le virus Ebola (mesurant parfois plus de 1000 nm de long) et le mamavirus, deux des plus grands virus connus avant la découverte de Megavirus chilensis.
+Mais en 2013, un article de la revue scientifique Science a décrit deux virus encore plus gros et génétiquement encore plus complexes, les pandoravirus, trouvés respectivement dans des sédiments marins, face au Chili, et en eau douce (en Australie).
 </t>
         </is>
       </c>
